--- a/biology/Médecine/Vénérologie/Vénérologie.xlsx
+++ b/biology/Médecine/Vénérologie/Vénérologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9n%C3%A9rologie</t>
+          <t>Vénérologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vénérologie (ou vénéréologie) est la branche de la pathologie médicale qui étudie les maladies vénériennes c'est-à-dire transmises par l'acte sexuel, aujourd'hui appelées infections sexuellement transmissibles (IST). Elle est, dans un contexte traditionnel, associée à la dermatologie, puisque la plupart des infections sexuellement transmises se manifestent par des lésions de la peau et des muqueuses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9n%C3%A9rologie</t>
+          <t>Vénérologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-L'étudiant doit d'abord suivre, après son baccalauréat, une première année commune aux études de santé. En fin de 6e année, les étudiants passent des épreuves nationales pour accéder à l'internat. Puis ils font quatre ans d'internat.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étudiant doit d'abord suivre, après son baccalauréat, une première année commune aux études de santé. En fin de 6e année, les étudiants passent des épreuves nationales pour accéder à l'internat. Puis ils font quatre ans d'internat.
 </t>
         </is>
       </c>
